--- a/public/template_report/delivery_template.xlsx
+++ b/public/template_report/delivery_template.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve"> Jl. Industri Timur Raya Blok WW5 No. 18</t>
   </si>
   <si>
-    <t>Jababeka Phase 2 Cikarang Pusat</t>
+    <t>Jababeka Phase 2 Cikarang Utara</t>
   </si>
 </sst>
 </file>
@@ -580,6 +580,60 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,42 +655,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,24 +665,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,7 +735,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,120 +1086,120 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="30"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="24"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="21"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1228,42 +1228,42 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="10"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -1272,18 +1272,18 @@
       <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -1319,10 +1319,10 @@
       <c r="J18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="75"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="1:13" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
@@ -1334,29 +1334,29 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1367,42 +1367,42 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="35"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="37"/>
@@ -1412,10 +1412,10 @@
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="65"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="37"/>
       <c r="K26" s="39"/>
       <c r="L26" s="40" t="s">
@@ -1460,14 +1460,14 @@
       <c r="D29" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="45"/>
       <c r="H29" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="41" t="s">
         <v>22</v>
       </c>
@@ -1478,43 +1478,21 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A12:F12"/>
@@ -1530,6 +1508,28 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <dataValidations count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="D18:D19 F19:J19 F18"/>

--- a/public/template_report/delivery_template.xlsx
+++ b/public/template_report/delivery_template.xlsx
@@ -44,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>PT IBARAKI KOGYO HANAN INDONESIA</t>
   </si>
   <si>
-    <t>WEIGHT (KG)</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
@@ -125,15 +122,17 @@
   </si>
   <si>
     <t>Jababeka Phase 2 Cikarang Utara</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="[$-13809]dd/mm/yyyy;@"/>
@@ -432,7 +431,7 @@
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -580,6 +579,9 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -654,12 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -722,28 +718,27 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>111920</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46298</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1043283" cy="449002"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>511213</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -751,44 +746,22 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="3145" b="30939"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="111920" y="46298"/>
-          <a:ext cx="1043283" cy="449002"/>
+          <a:off x="1" y="28575"/>
+          <a:ext cx="1333500" cy="482638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1058,10 +1031,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1049,7 @@
     <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.28515625" style="1"/>
@@ -1086,125 +1059,125 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="30"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+        <v>11</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
       <c r="J7" s="24"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="A8" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="21"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1228,42 +1201,42 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="A11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="10"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -1272,18 +1245,18 @@
       <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -1299,131 +1272,141 @@
     <row r="16" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="K16" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="C18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="D18" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="84"/>
       <c r="F18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="34" t="s">
+      <c r="G18" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="81" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="D22" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="76"/>
+      <c r="D22" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="77"/>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="35"/>
+      <c r="D24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
-      <c r="D24" s="77" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="70"/>
+      <c r="H26" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="71"/>
       <c r="J26" s="37"/>
       <c r="K26" s="39"/>
       <c r="L26" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" s="39"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -1436,63 +1419,63 @@
       <c r="L27" s="39"/>
       <c r="M27" s="42"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
       <c r="D28" s="39"/>
       <c r="E28" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="42"/>
       <c r="L28" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28" s="43"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="44"/>
       <c r="D29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="45"/>
       <c r="H29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="74"/>
+        <v>21</v>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
       <c r="K29" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" s="46"/>
       <c r="M29" s="47"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A12:F12"/>
@@ -1502,12 +1485,11 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A14:L14"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:M18"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="H32:L32"/>
     <mergeCell ref="K20:L20"/>
@@ -1531,9 +1513,8 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="J8:L8"/>
   </mergeCells>
-  <dataValidations count="25">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="D18:D19 F19:J19 F18"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter 'T' for taxable items in this column under this heading" sqref="K18"/>
+  <dataValidations count="23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="D18:D19 F18 F19:M19 J18"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in this cell and slogan in cell below. Quotation title is in cell at right" sqref="A2:H2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Slogan in this cell and company address in cells below, from cell B4 through B6" sqref="A3:H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A4:A6"/>
@@ -1553,7 +1534,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date, Quotation Number, and Customer ID in cells G2 through G5" sqref="I2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Prepared by name in cell at right" sqref="J12"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quotation end date in cell at right" sqref="J11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="J18"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="A18:A19 C18:C19"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Comments or Special Instructions in cell at right" sqref="D22:D23"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Append company Contact Name, Phone Number, and Email address in this cell" sqref="C29"/>

--- a/public/template_report/delivery_template.xlsx
+++ b/public/template_report/delivery_template.xlsx
@@ -133,11 +133,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="167" formatCode="[$-13809]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -414,7 +414,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -428,10 +428,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -478,22 +478,22 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
@@ -582,13 +582,94 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -600,89 +681,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1033,8 +1036,8 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:L14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,126 +1058,129 @@
     <col min="14" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:15" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="30"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
       <c r="J7" s="24"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="21"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+    </row>
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="19" t="s">
         <v>6</v>
@@ -1187,7 +1193,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1200,43 +1206,43 @@
       <c r="K10" s="11"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="10"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -1244,21 +1250,21 @@
       <c r="K13" s="52"/>
       <c r="L13" s="51"/>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1269,7 +1275,7 @@
       <c r="H15" s="12"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="K16" s="11"/>
     </row>
     <row r="18" spans="1:15" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,26 +1283,26 @@
       <c r="C18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="87"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="8" t="s">
         <v>1</v>
       </c>
@@ -1307,8 +1313,8 @@
     <row r="19" spans="1:15" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1324,22 +1330,22 @@
       <c r="H20" s="2"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1350,42 +1356,42 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="35"/>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="78"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="37"/>
@@ -1395,10 +1401,10 @@
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="37"/>
       <c r="K26" s="39"/>
       <c r="L26" s="40" t="s">
@@ -1443,14 +1449,14 @@
       <c r="D29" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="45"/>
       <c r="H29" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="41" t="s">
         <v>21</v>
       </c>
@@ -1461,21 +1467,43 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A12:F12"/>
@@ -1490,28 +1518,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="K18:M18"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <dataValidations count="23">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="D18:D19 F18 F19:M19 J18"/>

--- a/public/template_report/delivery_template.xlsx
+++ b/public/template_report/delivery_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>PT IBARAKI KOGYO HANAN INDONESIA</t>
   </si>
@@ -120,7 +120,16 @@
     <t>(___________________)</t>
   </si>
   <si>
+    <t>Nama:</t>
+  </si>
+  <si>
     <t>Tanggal :</t>
+  </si>
+  <si>
+    <t>Jam:</t>
+  </si>
+  <si>
+    <t>Jam</t>
   </si>
 </sst>
 </file>
@@ -129,14 +138,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="[$-13809]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="181" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="42">
@@ -276,16 +285,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,41 +407,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,63 +440,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1" tint="0.249946592608417"/>
@@ -408,36 +447,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -454,13 +463,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,25 +577,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,97 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,11 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,24 +820,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -834,159 +843,159 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,16 +1043,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="61" applyFont="1">
@@ -1143,7 +1152,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,7 +1172,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -1178,13 +1187,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1">
@@ -1196,25 +1205,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1607,10 +1616,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="14"/>
@@ -2033,40 +2042,70 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" ht="14.8" spans="3:13">
-      <c r="C30" s="34"/>
-      <c r="D30" s="35" t="s">
+    <row r="30" ht="15.2" spans="3:13">
+      <c r="C30" s="32"/>
+      <c r="D30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="35" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="74"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="75"/>
-      <c r="M30" s="76"/>
-    </row>
-    <row r="31" spans="11:11">
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="8:12">
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-    </row>
-    <row r="33" spans="8:12">
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" ht="14.8" spans="3:13">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="75"/>
+      <c r="M31" s="76"/>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="8:12">
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -2104,15 +2143,15 @@
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <dataValidations count="23">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Prepared by name in this cell" sqref="K12:K13"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A4:A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Append company Contact Name, Phone Number, and Email address in this cell" sqref="C30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Append company Contact Name, Phone Number, and Email address in this cell" sqref="C31"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer City, State, and Zip Code in this cell" sqref="A16:G16 H15:I16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Prepared by name in cell at right" sqref="J12"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer Name in this cell" sqref="A12 G12:I12"/>
